--- a/Data_Sources_and_Preparation/ITC_Trade_Data/Unit Value Analysis for selection of features/841850_Import_Values.xlsx
+++ b/Data_Sources_and_Preparation/ITC_Trade_Data/Unit Value Analysis for selection of features/841850_Import_Values.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murat.ozemre\Desktop\Thesis_Project\Data_Sources_and_Preparation\ITC_Trade_Data\Unit Value Analysis for selection of features\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Original_Units" sheetId="1" r:id="rId1"/>
     <sheet name="After_Unit_conv" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original_Units!$A$1:$P$173</definedName>
-  </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -88,8 +80,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,18 +98,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -147,26 +133,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -213,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +256,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,33 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71:B169"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,11 +488,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>200404</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="b">
@@ -579,11 +535,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>200405</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="b">
@@ -626,18 +582,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>200406</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -673,18 +629,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>200407</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -720,18 +676,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>200408</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -767,11 +723,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>200409</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="b">
@@ -814,11 +770,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>200410</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="b">
@@ -861,11 +817,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>200411</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="b">
@@ -908,18 +864,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>200412</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -955,14 +911,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>200501</v>
       </c>
       <c r="B11">
         <v>106</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="b">
@@ -983,7 +939,7 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="b">
@@ -999,14 +955,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>200502</v>
       </c>
       <c r="B12">
         <v>74</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="b">
@@ -1049,14 +1005,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>200503</v>
       </c>
       <c r="B13">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="b">
@@ -1099,14 +1055,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>200504</v>
       </c>
       <c r="B14">
         <v>64</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="b">
@@ -1149,14 +1105,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>200505</v>
       </c>
       <c r="B15">
         <v>72</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="b">
@@ -1199,14 +1155,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>200506</v>
       </c>
       <c r="B16">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
       <c r="D16" t="b">
@@ -1249,14 +1205,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>200507</v>
       </c>
       <c r="B17">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="b">
@@ -1299,14 +1255,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>200508</v>
       </c>
       <c r="B18">
         <v>134</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="b">
@@ -1349,14 +1305,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>200509</v>
       </c>
       <c r="B19">
         <v>37</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="b">
@@ -1399,14 +1355,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>200510</v>
       </c>
       <c r="B20">
         <v>86</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="b">
@@ -1449,14 +1405,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>200511</v>
       </c>
       <c r="B21">
         <v>68</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="b">
@@ -1499,14 +1455,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>200512</v>
       </c>
       <c r="B22">
         <v>98</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="D22" t="b">
@@ -1549,14 +1505,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>200601</v>
       </c>
       <c r="B23">
         <v>71</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="b">
@@ -1580,7 +1536,7 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" t="s">
         <v>19</v>
       </c>
       <c r="M23" t="b">
@@ -1589,21 +1545,21 @@
       <c r="N23">
         <v>1760</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" t="s">
         <v>16</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>200602</v>
       </c>
       <c r="B24">
         <v>75</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="b">
@@ -1627,7 +1583,7 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" t="s">
         <v>19</v>
       </c>
       <c r="M24" t="b">
@@ -1636,21 +1592,21 @@
       <c r="N24">
         <v>1262</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" t="s">
         <v>16</v>
       </c>
       <c r="P24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16">
       <c r="A25">
         <v>200603</v>
       </c>
       <c r="B25">
         <v>62</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="b">
@@ -1674,7 +1630,7 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" t="s">
         <v>19</v>
       </c>
       <c r="M25" t="b">
@@ -1683,28 +1639,28 @@
       <c r="N25">
         <v>1795</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" t="s">
         <v>16</v>
       </c>
       <c r="P25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16">
       <c r="A26">
         <v>200604</v>
       </c>
       <c r="B26">
         <v>48</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1721,7 +1677,7 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" t="s">
         <v>19</v>
       </c>
       <c r="M26" t="b">
@@ -1730,21 +1686,21 @@
       <c r="N26">
         <v>1757</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" t="s">
         <v>16</v>
       </c>
       <c r="P26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16">
       <c r="A27">
         <v>200605</v>
       </c>
       <c r="B27">
         <v>128</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="b">
@@ -1768,7 +1724,7 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" t="s">
         <v>19</v>
       </c>
       <c r="M27" t="b">
@@ -1777,21 +1733,21 @@
       <c r="N27">
         <v>1917</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" t="s">
         <v>16</v>
       </c>
       <c r="P27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16">
       <c r="A28">
         <v>200606</v>
       </c>
       <c r="B28">
         <v>85</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="b">
@@ -1815,7 +1771,7 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" t="s">
         <v>19</v>
       </c>
       <c r="M28" t="b">
@@ -1824,21 +1780,21 @@
       <c r="N28">
         <v>2015</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" t="s">
         <v>16</v>
       </c>
       <c r="P28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16">
       <c r="A29">
         <v>200607</v>
       </c>
       <c r="B29">
         <v>91</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>16</v>
       </c>
       <c r="D29" t="b">
@@ -1862,7 +1818,7 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" t="s">
         <v>19</v>
       </c>
       <c r="M29" t="b">
@@ -1871,21 +1827,21 @@
       <c r="N29">
         <v>1912</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="O29" t="s">
         <v>16</v>
       </c>
       <c r="P29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16">
       <c r="A30">
         <v>200608</v>
       </c>
       <c r="B30">
         <v>49</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30" t="b">
@@ -1909,7 +1865,7 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" t="s">
         <v>19</v>
       </c>
       <c r="M30" t="b">
@@ -1918,21 +1874,21 @@
       <c r="N30">
         <v>2424</v>
       </c>
-      <c r="O30" s="2" t="s">
+      <c r="O30" t="s">
         <v>16</v>
       </c>
       <c r="P30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16">
       <c r="A31">
         <v>200609</v>
       </c>
       <c r="B31">
         <v>48</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31" t="b">
@@ -1956,7 +1912,7 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" t="s">
         <v>19</v>
       </c>
       <c r="M31" t="b">
@@ -1965,21 +1921,21 @@
       <c r="N31">
         <v>2335</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" t="s">
         <v>16</v>
       </c>
       <c r="P31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16">
       <c r="A32">
         <v>200610</v>
       </c>
       <c r="B32">
         <v>39</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>16</v>
       </c>
       <c r="D32" t="b">
@@ -2003,7 +1959,7 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" t="s">
         <v>19</v>
       </c>
       <c r="M32" t="b">
@@ -2012,21 +1968,21 @@
       <c r="N32">
         <v>2603</v>
       </c>
-      <c r="O32" s="2" t="s">
+      <c r="O32" t="s">
         <v>16</v>
       </c>
       <c r="P32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16">
       <c r="A33">
         <v>200611</v>
       </c>
       <c r="B33">
         <v>113</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>16</v>
       </c>
       <c r="D33" t="b">
@@ -2050,7 +2006,7 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" t="s">
         <v>19</v>
       </c>
       <c r="M33" t="b">
@@ -2059,21 +2015,21 @@
       <c r="N33">
         <v>2439</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="O33" t="s">
         <v>16</v>
       </c>
       <c r="P33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16">
       <c r="A34">
         <v>200612</v>
       </c>
       <c r="B34">
         <v>258</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" t="b">
@@ -2097,7 +2053,7 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" t="s">
         <v>19</v>
       </c>
       <c r="M34" t="b">
@@ -2106,21 +2062,21 @@
       <c r="N34">
         <v>2253</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="O34" t="s">
         <v>16</v>
       </c>
       <c r="P34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16">
       <c r="A35">
         <v>200701</v>
       </c>
       <c r="B35">
         <v>132</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>16</v>
       </c>
       <c r="D35" t="b">
@@ -2144,7 +2100,7 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" t="s">
         <v>19</v>
       </c>
       <c r="M35" t="b">
@@ -2153,21 +2109,21 @@
       <c r="N35">
         <v>2312</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="O35" t="s">
         <v>16</v>
       </c>
       <c r="P35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16">
       <c r="A36">
         <v>200702</v>
       </c>
       <c r="B36">
         <v>58</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>16</v>
       </c>
       <c r="D36" t="b">
@@ -2191,7 +2147,7 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" t="s">
         <v>19</v>
       </c>
       <c r="M36" t="b">
@@ -2200,21 +2156,21 @@
       <c r="N36">
         <v>1890</v>
       </c>
-      <c r="O36" s="2" t="s">
+      <c r="O36" t="s">
         <v>16</v>
       </c>
       <c r="P36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16">
       <c r="A37">
         <v>200703</v>
       </c>
       <c r="B37">
         <v>107</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>16</v>
       </c>
       <c r="D37" t="b">
@@ -2238,7 +2194,7 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" t="s">
         <v>19</v>
       </c>
       <c r="M37" t="b">
@@ -2247,21 +2203,21 @@
       <c r="N37">
         <v>2401</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="O37" t="s">
         <v>16</v>
       </c>
       <c r="P37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16">
       <c r="A38">
         <v>200704</v>
       </c>
       <c r="B38">
         <v>139</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>16</v>
       </c>
       <c r="D38" t="b">
@@ -2285,7 +2241,7 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" t="s">
         <v>19</v>
       </c>
       <c r="M38" t="b">
@@ -2294,21 +2250,21 @@
       <c r="N38">
         <v>2052</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="O38" t="s">
         <v>16</v>
       </c>
       <c r="P38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16">
       <c r="A39">
         <v>200705</v>
       </c>
       <c r="B39">
         <v>114</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>16</v>
       </c>
       <c r="D39" t="b">
@@ -2332,7 +2288,7 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" t="s">
         <v>19</v>
       </c>
       <c r="M39" t="b">
@@ -2341,21 +2297,21 @@
       <c r="N39">
         <v>1937</v>
       </c>
-      <c r="O39" s="2" t="s">
+      <c r="O39" t="s">
         <v>16</v>
       </c>
       <c r="P39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16">
       <c r="A40">
         <v>200706</v>
       </c>
       <c r="B40">
         <v>156</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="b">
@@ -2379,7 +2335,7 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" t="s">
         <v>19</v>
       </c>
       <c r="M40" t="b">
@@ -2388,21 +2344,21 @@
       <c r="N40">
         <v>1274</v>
       </c>
-      <c r="O40" s="2" t="s">
+      <c r="O40" t="s">
         <v>16</v>
       </c>
       <c r="P40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16">
       <c r="A41">
         <v>200707</v>
       </c>
       <c r="B41">
         <v>207</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>16</v>
       </c>
       <c r="D41" t="b">
@@ -2426,7 +2382,7 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" t="s">
         <v>19</v>
       </c>
       <c r="M41" t="b">
@@ -2435,21 +2391,21 @@
       <c r="N41">
         <v>2224</v>
       </c>
-      <c r="O41" s="2" t="s">
+      <c r="O41" t="s">
         <v>16</v>
       </c>
       <c r="P41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16">
       <c r="A42">
         <v>200708</v>
       </c>
       <c r="B42">
         <v>241</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>16</v>
       </c>
       <c r="D42" t="b">
@@ -2473,7 +2429,7 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" t="s">
         <v>19</v>
       </c>
       <c r="M42" t="b">
@@ -2482,21 +2438,21 @@
       <c r="N42">
         <v>2423</v>
       </c>
-      <c r="O42" s="2" t="s">
+      <c r="O42" t="s">
         <v>16</v>
       </c>
       <c r="P42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16">
       <c r="A43">
         <v>200709</v>
       </c>
       <c r="B43">
         <v>232</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>16</v>
       </c>
       <c r="D43" t="b">
@@ -2520,7 +2476,7 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" t="s">
         <v>19</v>
       </c>
       <c r="M43" t="b">
@@ -2529,21 +2485,21 @@
       <c r="N43">
         <v>2581</v>
       </c>
-      <c r="O43" s="2" t="s">
+      <c r="O43" t="s">
         <v>16</v>
       </c>
       <c r="P43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16">
       <c r="A44">
         <v>200710</v>
       </c>
       <c r="B44">
         <v>278</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>16</v>
       </c>
       <c r="D44" t="b">
@@ -2567,7 +2523,7 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" t="s">
         <v>19</v>
       </c>
       <c r="M44" t="b">
@@ -2576,21 +2532,21 @@
       <c r="N44">
         <v>2656</v>
       </c>
-      <c r="O44" s="2" t="s">
+      <c r="O44" t="s">
         <v>16</v>
       </c>
       <c r="P44" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16">
       <c r="A45">
         <v>200711</v>
       </c>
       <c r="B45">
         <v>263</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>16</v>
       </c>
       <c r="D45" t="b">
@@ -2614,7 +2570,7 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" t="s">
         <v>19</v>
       </c>
       <c r="M45" t="b">
@@ -2623,21 +2579,21 @@
       <c r="N45">
         <v>2915</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="O45" t="s">
         <v>16</v>
       </c>
       <c r="P45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16">
       <c r="A46">
         <v>200712</v>
       </c>
       <c r="B46">
         <v>177</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>16</v>
       </c>
       <c r="D46" t="b">
@@ -2661,7 +2617,7 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" t="s">
         <v>19</v>
       </c>
       <c r="M46" t="b">
@@ -2670,21 +2626,21 @@
       <c r="N46">
         <v>2207</v>
       </c>
-      <c r="O46" s="2" t="s">
+      <c r="O46" t="s">
         <v>16</v>
       </c>
       <c r="P46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16">
       <c r="A47">
         <v>200801</v>
       </c>
       <c r="B47">
         <v>159</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="b">
@@ -2708,7 +2664,7 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" t="s">
         <v>19</v>
       </c>
       <c r="M47" t="b">
@@ -2717,21 +2673,21 @@
       <c r="N47">
         <v>2334</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="O47" t="s">
         <v>16</v>
       </c>
       <c r="P47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16">
       <c r="A48">
         <v>200802</v>
       </c>
       <c r="B48">
         <v>254</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>16</v>
       </c>
       <c r="D48" t="b">
@@ -2755,7 +2711,7 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" t="s">
         <v>19</v>
       </c>
       <c r="M48" t="b">
@@ -2764,21 +2720,21 @@
       <c r="N48">
         <v>2202</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="O48" t="s">
         <v>16</v>
       </c>
       <c r="P48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16">
       <c r="A49">
         <v>200803</v>
       </c>
       <c r="B49">
         <v>175</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>16</v>
       </c>
       <c r="D49" t="b">
@@ -2802,7 +2758,7 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" t="s">
         <v>19</v>
       </c>
       <c r="M49" t="b">
@@ -2811,21 +2767,21 @@
       <c r="N49">
         <v>1643</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="O49" t="s">
         <v>16</v>
       </c>
       <c r="P49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16">
       <c r="A50">
         <v>200804</v>
       </c>
       <c r="B50">
         <v>114</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>16</v>
       </c>
       <c r="D50" t="b">
@@ -2849,7 +2805,7 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" t="s">
         <v>19</v>
       </c>
       <c r="M50" t="b">
@@ -2858,21 +2814,21 @@
       <c r="N50">
         <v>2260</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="O50" t="s">
         <v>16</v>
       </c>
       <c r="P50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16">
       <c r="A51">
         <v>200805</v>
       </c>
       <c r="B51">
         <v>243</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>16</v>
       </c>
       <c r="D51" t="b">
@@ -2896,7 +2852,7 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" t="s">
         <v>19</v>
       </c>
       <c r="M51" t="b">
@@ -2905,21 +2861,21 @@
       <c r="N51">
         <v>2245</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="O51" t="s">
         <v>16</v>
       </c>
       <c r="P51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16">
       <c r="A52">
         <v>200806</v>
       </c>
       <c r="B52">
         <v>181</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>16</v>
       </c>
       <c r="D52" t="b">
@@ -2943,7 +2899,7 @@
       <c r="J52" t="b">
         <v>0</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" t="s">
         <v>19</v>
       </c>
       <c r="M52" t="b">
@@ -2952,21 +2908,21 @@
       <c r="N52">
         <v>2124</v>
       </c>
-      <c r="O52" s="2" t="s">
+      <c r="O52" t="s">
         <v>16</v>
       </c>
       <c r="P52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16">
       <c r="A53">
         <v>200807</v>
       </c>
       <c r="B53">
         <v>300</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>16</v>
       </c>
       <c r="D53" t="b">
@@ -2990,7 +2946,7 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" t="s">
         <v>19</v>
       </c>
       <c r="M53" t="b">
@@ -2999,21 +2955,21 @@
       <c r="N53">
         <v>2164</v>
       </c>
-      <c r="O53" s="2" t="s">
+      <c r="O53" t="s">
         <v>16</v>
       </c>
       <c r="P53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16">
       <c r="A54">
         <v>200808</v>
       </c>
       <c r="B54">
         <v>320</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>16</v>
       </c>
       <c r="D54" t="b">
@@ -3037,7 +2993,7 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" t="s">
         <v>19</v>
       </c>
       <c r="M54" t="b">
@@ -3046,21 +3002,21 @@
       <c r="N54">
         <v>3062</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="O54" t="s">
         <v>16</v>
       </c>
       <c r="P54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16">
       <c r="A55">
         <v>200809</v>
       </c>
       <c r="B55">
         <v>256</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>16</v>
       </c>
       <c r="D55" t="b">
@@ -3084,7 +3040,7 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" t="s">
         <v>19</v>
       </c>
       <c r="M55" t="b">
@@ -3093,21 +3049,21 @@
       <c r="N55">
         <v>2188</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="O55" t="s">
         <v>16</v>
       </c>
       <c r="P55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16">
       <c r="A56">
         <v>200810</v>
       </c>
       <c r="B56">
         <v>221</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>16</v>
       </c>
       <c r="D56" t="b">
@@ -3131,7 +3087,7 @@
       <c r="J56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" t="s">
         <v>19</v>
       </c>
       <c r="M56" t="b">
@@ -3140,21 +3096,21 @@
       <c r="N56">
         <v>2682</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="O56" t="s">
         <v>16</v>
       </c>
       <c r="P56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16">
       <c r="A57">
         <v>200811</v>
       </c>
       <c r="B57">
         <v>199</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>16</v>
       </c>
       <c r="D57" t="b">
@@ -3178,7 +3134,7 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" t="s">
         <v>19</v>
       </c>
       <c r="M57" t="b">
@@ -3187,21 +3143,21 @@
       <c r="N57">
         <v>2218</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="O57" t="s">
         <v>16</v>
       </c>
       <c r="P57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16">
       <c r="A58">
         <v>200812</v>
       </c>
       <c r="B58">
         <v>172</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>16</v>
       </c>
       <c r="D58" t="b">
@@ -3225,7 +3181,7 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" t="s">
         <v>19</v>
       </c>
       <c r="M58" t="b">
@@ -3234,21 +3190,21 @@
       <c r="N58">
         <v>1925</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="O58" t="s">
         <v>16</v>
       </c>
       <c r="P58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16">
       <c r="A59">
         <v>200901</v>
       </c>
       <c r="B59">
         <v>237</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>16</v>
       </c>
       <c r="D59" t="b">
@@ -3284,21 +3240,21 @@
       <c r="N59">
         <v>1954</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="O59" t="s">
         <v>16</v>
       </c>
       <c r="P59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16">
       <c r="A60">
         <v>200902</v>
       </c>
       <c r="B60">
         <v>219</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>16</v>
       </c>
       <c r="D60" t="b">
@@ -3334,21 +3290,21 @@
       <c r="N60">
         <v>1928</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="O60" t="s">
         <v>16</v>
       </c>
       <c r="P60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16">
       <c r="A61">
         <v>200903</v>
       </c>
       <c r="B61">
         <v>270</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>16</v>
       </c>
       <c r="D61" t="b">
@@ -3384,21 +3340,21 @@
       <c r="N61">
         <v>1177</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="O61" t="s">
         <v>16</v>
       </c>
       <c r="P61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16">
       <c r="A62">
         <v>200904</v>
       </c>
       <c r="B62">
         <v>213</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>16</v>
       </c>
       <c r="D62" t="b">
@@ -3434,21 +3390,21 @@
       <c r="N62">
         <v>1656</v>
       </c>
-      <c r="O62" s="2" t="s">
+      <c r="O62" t="s">
         <v>16</v>
       </c>
       <c r="P62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16">
       <c r="A63">
         <v>200905</v>
       </c>
       <c r="B63">
         <v>205</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>16</v>
       </c>
       <c r="D63" t="b">
@@ -3484,21 +3440,21 @@
       <c r="N63">
         <v>1810</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="O63" t="s">
         <v>16</v>
       </c>
       <c r="P63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16">
       <c r="A64">
         <v>200906</v>
       </c>
       <c r="B64">
         <v>213</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>16</v>
       </c>
       <c r="D64" t="b">
@@ -3534,21 +3490,21 @@
       <c r="N64">
         <v>1686</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="O64" t="s">
         <v>16</v>
       </c>
       <c r="P64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16">
       <c r="A65">
         <v>200907</v>
       </c>
       <c r="B65">
         <v>214</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>16</v>
       </c>
       <c r="D65" t="b">
@@ -3584,21 +3540,21 @@
       <c r="N65">
         <v>1318</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="O65" t="s">
         <v>16</v>
       </c>
       <c r="P65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16">
       <c r="A66">
         <v>200908</v>
       </c>
       <c r="B66">
         <v>317</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>16</v>
       </c>
       <c r="D66" t="b">
@@ -3634,21 +3590,21 @@
       <c r="N66">
         <v>2831</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="O66" t="s">
         <v>16</v>
       </c>
       <c r="P66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16">
       <c r="A67">
         <v>200909</v>
       </c>
       <c r="B67">
         <v>234</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>16</v>
       </c>
       <c r="D67" t="b">
@@ -3684,21 +3640,21 @@
       <c r="N67">
         <v>1322</v>
       </c>
-      <c r="O67" s="2" t="s">
+      <c r="O67" t="s">
         <v>16</v>
       </c>
       <c r="P67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16">
       <c r="A68">
         <v>200910</v>
       </c>
       <c r="B68">
         <v>223</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
       <c r="D68" t="b">
@@ -3734,21 +3690,21 @@
       <c r="N68">
         <v>2518</v>
       </c>
-      <c r="O68" s="2" t="s">
+      <c r="O68" t="s">
         <v>16</v>
       </c>
       <c r="P68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16">
       <c r="A69">
         <v>200911</v>
       </c>
       <c r="B69">
         <v>224</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>16</v>
       </c>
       <c r="D69" t="b">
@@ -3784,21 +3740,21 @@
       <c r="N69">
         <v>2265</v>
       </c>
-      <c r="O69" s="2" t="s">
+      <c r="O69" t="s">
         <v>16</v>
       </c>
       <c r="P69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16">
       <c r="A70">
         <v>200912</v>
       </c>
       <c r="B70">
         <v>220</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>16</v>
       </c>
       <c r="D70" t="b">
@@ -3834,19 +3790,19 @@
       <c r="N70">
         <v>2327</v>
       </c>
-      <c r="O70" s="2" t="s">
+      <c r="O70" t="s">
         <v>16</v>
       </c>
       <c r="P70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16">
       <c r="A71">
         <v>201001</v>
       </c>
       <c r="B71">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -3891,7 +3847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16">
       <c r="A72">
         <v>201002</v>
       </c>
@@ -3941,12 +3897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16">
       <c r="A73">
         <v>201003</v>
       </c>
       <c r="B73">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -3991,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16">
       <c r="A74">
         <v>201004</v>
       </c>
@@ -4041,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16">
       <c r="A75">
         <v>201005</v>
       </c>
@@ -4091,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16">
       <c r="A76">
         <v>201006</v>
       </c>
@@ -4141,12 +4097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16">
       <c r="A77">
         <v>201007</v>
       </c>
       <c r="B77">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -4191,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16">
       <c r="A78">
         <v>201008</v>
       </c>
@@ -4241,12 +4197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16">
       <c r="A79">
         <v>201009</v>
       </c>
       <c r="B79">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -4291,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16">
       <c r="A80">
         <v>201010</v>
       </c>
@@ -4341,7 +4297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16">
       <c r="A81">
         <v>201011</v>
       </c>
@@ -4391,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16">
       <c r="A82">
         <v>201012</v>
       </c>
@@ -4441,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16">
       <c r="A83">
         <v>201101</v>
       </c>
@@ -4491,12 +4447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16">
       <c r="A84">
         <v>201102</v>
       </c>
       <c r="B84">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -4541,12 +4497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16">
       <c r="A85">
         <v>201103</v>
       </c>
       <c r="B85">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -4591,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16">
       <c r="A86">
         <v>201104</v>
       </c>
@@ -4641,12 +4597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16">
       <c r="A87">
         <v>201105</v>
       </c>
       <c r="B87">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -4691,12 +4647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16">
       <c r="A88">
         <v>201106</v>
       </c>
       <c r="B88">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -4741,12 +4697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16">
       <c r="A89">
         <v>201107</v>
       </c>
       <c r="B89">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -4791,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16">
       <c r="A90">
         <v>201108</v>
       </c>
@@ -4841,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16">
       <c r="A91">
         <v>201109</v>
       </c>
@@ -4891,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16">
       <c r="A92">
         <v>201110</v>
       </c>
@@ -4941,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16">
       <c r="A93">
         <v>201111</v>
       </c>
@@ -4991,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16">
       <c r="A94">
         <v>201112</v>
       </c>
@@ -5041,7 +4997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16">
       <c r="A95">
         <v>201201</v>
       </c>
@@ -5091,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16">
       <c r="A96">
         <v>201202</v>
       </c>
@@ -5141,7 +5097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16">
       <c r="A97">
         <v>201203</v>
       </c>
@@ -5191,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16">
       <c r="A98">
         <v>201204</v>
       </c>
@@ -5241,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16">
       <c r="A99">
         <v>201205</v>
       </c>
@@ -5255,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -5291,12 +5247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16">
       <c r="A100">
         <v>201206</v>
       </c>
       <c r="B100">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -5341,12 +5297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16">
       <c r="A101">
         <v>201207</v>
       </c>
       <c r="B101">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -5391,14 +5347,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16">
       <c r="A102">
         <v>201208</v>
       </c>
       <c r="B102">
         <v>341</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>16</v>
       </c>
       <c r="D102" t="b">
@@ -5441,14 +5397,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16">
       <c r="A103">
         <v>201209</v>
       </c>
       <c r="B103">
         <v>254</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
         <v>16</v>
       </c>
       <c r="D103" t="b">
@@ -5491,14 +5447,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16">
       <c r="A104">
         <v>201210</v>
       </c>
       <c r="B104">
         <v>285</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s">
         <v>16</v>
       </c>
       <c r="D104" t="b">
@@ -5541,14 +5497,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16">
       <c r="A105">
         <v>201211</v>
       </c>
       <c r="B105">
         <v>187</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" t="s">
         <v>16</v>
       </c>
       <c r="D105" t="b">
@@ -5591,14 +5547,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16">
       <c r="A106">
         <v>201212</v>
       </c>
       <c r="B106">
         <v>344</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>16</v>
       </c>
       <c r="D106" t="b">
@@ -5641,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16">
       <c r="A107">
         <v>201301</v>
       </c>
@@ -5691,12 +5647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16">
       <c r="A108">
         <v>201302</v>
       </c>
       <c r="B108">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -5741,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16">
       <c r="A109">
         <v>201303</v>
       </c>
@@ -5791,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16">
       <c r="A110">
         <v>201304</v>
       </c>
@@ -5841,12 +5797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16">
       <c r="A111">
         <v>201305</v>
       </c>
       <c r="B111">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -5891,12 +5847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16">
       <c r="A112">
         <v>201306</v>
       </c>
       <c r="B112">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -5905,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
@@ -5941,12 +5897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113">
         <v>201307</v>
       </c>
       <c r="B113">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -5991,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114">
         <v>201308</v>
       </c>
@@ -6041,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115">
         <v>201309</v>
       </c>
@@ -6091,12 +6047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116">
         <v>201310</v>
       </c>
       <c r="B116">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
@@ -6141,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117">
         <v>201311</v>
       </c>
@@ -6191,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16">
       <c r="A118">
         <v>201312</v>
       </c>
@@ -6241,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119">
         <v>201401</v>
       </c>
@@ -6291,12 +6247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120">
         <v>201402</v>
       </c>
       <c r="B120">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -6341,12 +6297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16">
       <c r="A121">
         <v>201403</v>
       </c>
       <c r="B121">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -6355,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>8.0299999999999994</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -6391,12 +6347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16">
       <c r="A122">
         <v>201404</v>
       </c>
       <c r="B122">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -6405,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -6441,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="A123">
         <v>201405</v>
       </c>
@@ -6491,12 +6447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="A124">
         <v>201406</v>
       </c>
       <c r="B124">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -6541,7 +6497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="A125">
         <v>201407</v>
       </c>
@@ -6591,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16">
       <c r="A126">
         <v>201408</v>
       </c>
@@ -6641,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127">
         <v>201409</v>
       </c>
@@ -6691,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128">
         <v>201410</v>
       </c>
@@ -6741,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="A129">
         <v>201411</v>
       </c>
@@ -6791,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="A130">
         <v>201412</v>
       </c>
@@ -6841,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="A131">
         <v>201501</v>
       </c>
@@ -6855,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
@@ -6891,12 +6847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132">
         <v>201502</v>
       </c>
       <c r="B132">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
@@ -6941,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133">
         <v>201503</v>
       </c>
@@ -6991,12 +6947,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="A134">
         <v>201504</v>
       </c>
       <c r="B134">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
@@ -7041,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135">
         <v>201505</v>
       </c>
@@ -7091,7 +7047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136">
         <v>201506</v>
       </c>
@@ -7141,12 +7097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137">
         <v>201507</v>
       </c>
       <c r="B137">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
@@ -7191,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138">
         <v>201508</v>
       </c>
@@ -7205,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -7241,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139">
         <v>201509</v>
       </c>
@@ -7291,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140">
         <v>201510</v>
       </c>
@@ -7305,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -7341,12 +7297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141">
         <v>201511</v>
       </c>
       <c r="B141">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -7391,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142">
         <v>201512</v>
       </c>
@@ -7441,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143">
         <v>201601</v>
       </c>
@@ -7455,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -7491,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144">
         <v>201602</v>
       </c>
@@ -7541,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16">
       <c r="A145">
         <v>201603</v>
       </c>
@@ -7591,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16">
       <c r="A146">
         <v>201604</v>
       </c>
@@ -7641,12 +7597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16">
       <c r="A147">
         <v>201605</v>
       </c>
       <c r="B147">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
@@ -7655,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>8.8800000000000008</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -7691,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16">
       <c r="A148">
         <v>201606</v>
       </c>
@@ -7705,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>9.64</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -7741,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16">
       <c r="A149">
         <v>201607</v>
       </c>
@@ -7791,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16">
       <c r="A150">
         <v>201608</v>
       </c>
@@ -7841,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16">
       <c r="A151">
         <v>201609</v>
       </c>
@@ -7891,7 +7847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16">
       <c r="A152">
         <v>201610</v>
       </c>
@@ -7905,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -7941,12 +7897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16">
       <c r="A153">
         <v>201611</v>
       </c>
       <c r="B153">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
@@ -7991,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16">
       <c r="A154">
         <v>201612</v>
       </c>
@@ -8041,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16">
       <c r="A155">
         <v>201701</v>
       </c>
@@ -8091,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16">
       <c r="A156">
         <v>201702</v>
       </c>
@@ -8141,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16">
       <c r="A157">
         <v>201703</v>
       </c>
@@ -8191,12 +8147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16">
       <c r="A158">
         <v>201704</v>
       </c>
       <c r="B158">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -8241,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16">
       <c r="A159">
         <v>201705</v>
       </c>
@@ -8291,12 +8247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16">
       <c r="A160">
         <v>201706</v>
       </c>
       <c r="B160">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -8341,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16">
       <c r="A161">
         <v>201707</v>
       </c>
@@ -8391,7 +8347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16">
       <c r="A162">
         <v>201708</v>
       </c>
@@ -8405,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>9.2200000000000006</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -8441,7 +8397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16">
       <c r="A163">
         <v>201709</v>
       </c>
@@ -8455,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
@@ -8491,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16">
       <c r="A164">
         <v>201710</v>
       </c>
@@ -8541,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16">
       <c r="A165">
         <v>201711</v>
       </c>
@@ -8591,12 +8547,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16">
       <c r="A166">
         <v>201712</v>
       </c>
       <c r="B166">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
@@ -8641,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16">
       <c r="A167">
         <v>201801</v>
       </c>
@@ -8691,12 +8647,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16">
       <c r="A168">
         <v>201802</v>
       </c>
       <c r="B168">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
@@ -8741,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16">
       <c r="A169">
         <v>201803</v>
       </c>
@@ -8791,11 +8747,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16">
       <c r="A170">
         <v>201804</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170">
         <v>0</v>
       </c>
       <c r="D170" t="b">
@@ -8838,11 +8794,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16">
       <c r="A171">
         <v>201805</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171">
         <v>0</v>
       </c>
       <c r="D171" t="b">
@@ -8885,11 +8841,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16">
       <c r="A172">
         <v>201806</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172">
         <v>0</v>
       </c>
       <c r="D172" t="b">
@@ -8904,30 +8860,30 @@
       <c r="G172" t="b">
         <v>0</v>
       </c>
-      <c r="I172" s="2">
+      <c r="I172">
         <v>0</v>
       </c>
       <c r="J172" t="b">
         <v>1</v>
       </c>
-      <c r="L172" s="2">
+      <c r="L172">
         <v>0</v>
       </c>
       <c r="M172" t="b">
         <v>1</v>
       </c>
-      <c r="O172" s="2">
+      <c r="O172">
         <v>0</v>
       </c>
       <c r="P172" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16">
       <c r="A173">
         <v>201807</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173">
         <v>0</v>
       </c>
       <c r="D173" t="b">
@@ -8942,19 +8898,19 @@
       <c r="G173" t="b">
         <v>0</v>
       </c>
-      <c r="I173" s="2">
+      <c r="I173">
         <v>0</v>
       </c>
       <c r="J173" t="b">
         <v>0</v>
       </c>
-      <c r="L173" s="2">
+      <c r="L173">
         <v>0</v>
       </c>
       <c r="M173" t="b">
         <v>0</v>
       </c>
-      <c r="O173" s="2">
+      <c r="O173">
         <v>0</v>
       </c>
       <c r="P173" t="b">
@@ -8962,20 +8918,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P173"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P173"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9025,7 +8980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16">
       <c r="C2">
         <v>0</v>
       </c>
@@ -9042,7 +8997,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>6.5529999999999999</v>
+        <v>6.553</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -9060,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>8.6150000000000002</v>
+        <v>8.615</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -9069,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16">
       <c r="C3">
         <v>0</v>
       </c>
@@ -9086,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.6669999999999998</v>
+        <v>8.667</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -9095,7 +9050,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.0659999999999998</v>
+        <v>7.066</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
@@ -9113,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16">
       <c r="C4">
         <v>0</v>
       </c>
@@ -9121,7 +9076,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -9130,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>10.042999999999999</v>
+        <v>10.043</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -9139,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.0979999999999999</v>
+        <v>7.098</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -9148,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9.0779999999999994</v>
+        <v>9.077999999999999</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -9157,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16">
       <c r="C5">
         <v>0</v>
       </c>
@@ -9165,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -9174,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8.5150000000000006</v>
+        <v>8.515000000000001</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -9183,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.0259999999999998</v>
+        <v>8.026</v>
       </c>
       <c r="L5" t="s">
         <v>17</v>
@@ -9201,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16">
       <c r="C6">
         <v>0</v>
       </c>
@@ -9209,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.8499999999999996</v>
+        <v>4.85</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -9218,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.9329999999999998</v>
+        <v>9.933</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -9245,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16">
       <c r="C7">
         <v>0</v>
       </c>
@@ -9262,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.5119999999999996</v>
+        <v>7.512</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -9280,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>8.5239999999999991</v>
+        <v>8.523999999999999</v>
       </c>
       <c r="O7" t="s">
         <v>17</v>
@@ -9289,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16">
       <c r="C8">
         <v>0</v>
       </c>
@@ -9306,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8.3539999999999992</v>
+        <v>8.353999999999999</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -9315,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.312999999999999</v>
+        <v>18.313</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -9333,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16">
       <c r="C9">
         <v>0</v>
       </c>
@@ -9350,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6.0490000000000004</v>
+        <v>6.049</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -9368,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>8.6449999999999996</v>
+        <v>8.645</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -9377,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16">
       <c r="C10">
         <v>0</v>
       </c>
@@ -9385,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -9394,7 +9349,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>9.6470000000000002</v>
+        <v>9.647</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9421,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16">
       <c r="B11">
         <v>106</v>
       </c>
@@ -9462,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16">
       <c r="B12">
         <v>74</v>
       </c>
@@ -9491,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.4619999999999997</v>
+        <v>6.462</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -9500,7 +9455,7 @@
         <v>1</v>
       </c>
       <c r="N12">
-        <v>9.4570000000000007</v>
+        <v>9.457000000000001</v>
       </c>
       <c r="O12" t="s">
         <v>17</v>
@@ -9509,7 +9464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16">
       <c r="B13">
         <v>29</v>
       </c>
@@ -9538,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.4189999999999996</v>
+        <v>6.419</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
@@ -9556,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16">
       <c r="B14">
         <v>64</v>
       </c>
@@ -9594,7 +9549,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.5510000000000002</v>
+        <v>9.551</v>
       </c>
       <c r="O14" t="s">
         <v>17</v>
@@ -9603,7 +9558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16">
       <c r="B15">
         <v>72</v>
       </c>
@@ -9641,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.2409999999999997</v>
+        <v>9.241</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
@@ -9650,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16">
       <c r="B16">
         <v>56</v>
       </c>
@@ -9679,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.3579999999999997</v>
+        <v>7.358</v>
       </c>
       <c r="L16" t="s">
         <v>17</v>
@@ -9688,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.1639999999999997</v>
+        <v>9.164</v>
       </c>
       <c r="O16" t="s">
         <v>17</v>
@@ -9697,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>44</v>
       </c>
@@ -9726,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.5439999999999996</v>
+        <v>7.544</v>
       </c>
       <c r="L17" t="s">
         <v>17</v>
@@ -9735,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>8.9870000000000001</v>
+        <v>8.987</v>
       </c>
       <c r="O17" t="s">
         <v>17</v>
@@ -9744,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>134</v>
       </c>
@@ -9773,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.2370000000000001</v>
+        <v>8.237</v>
       </c>
       <c r="L18" t="s">
         <v>17</v>
@@ -9782,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.5990000000000002</v>
+        <v>9.599</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
@@ -9791,7 +9746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>37</v>
       </c>
@@ -9811,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -9820,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>6.2990000000000004</v>
+        <v>6.299</v>
       </c>
       <c r="L19" t="s">
         <v>17</v>
@@ -9829,7 +9784,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.082000000000001</v>
+        <v>10.082</v>
       </c>
       <c r="O19" t="s">
         <v>17</v>
@@ -9838,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>86</v>
       </c>
@@ -9858,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>67.667000000000002</v>
+        <v>67.667</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -9876,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.3010000000000002</v>
+        <v>9.301</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
@@ -9885,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>68</v>
       </c>
@@ -9905,7 +9860,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>36.332999999999998</v>
+        <v>36.333</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -9914,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>4.4859999999999998</v>
+        <v>4.486</v>
       </c>
       <c r="L21" t="s">
         <v>17</v>
@@ -9923,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.2590000000000003</v>
+        <v>9.259</v>
       </c>
       <c r="O21" t="s">
         <v>17</v>
@@ -9932,7 +9887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>98</v>
       </c>
@@ -9961,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.5149999999999997</v>
+        <v>6.515</v>
       </c>
       <c r="L22" t="s">
         <v>17</v>
@@ -9970,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.5489999999999995</v>
+        <v>9.548999999999999</v>
       </c>
       <c r="O22" t="s">
         <v>17</v>
@@ -9979,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>71</v>
       </c>
@@ -10023,7 +9978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>75</v>
       </c>
@@ -10043,7 +9998,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8.7249999999999996</v>
+        <v>8.725</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -10067,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>62</v>
       </c>
@@ -10087,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>8.2249999999999996</v>
+        <v>8.225</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -10111,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>48</v>
       </c>
@@ -10122,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>9.0299999999999994</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -10155,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>128</v>
       </c>
@@ -10175,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10.622999999999999</v>
+        <v>10.623</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -10199,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>85</v>
       </c>
@@ -10219,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12.074999999999999</v>
+        <v>12.075</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -10243,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16">
       <c r="B29">
         <v>91</v>
       </c>
@@ -10263,7 +10218,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>9.2360000000000007</v>
+        <v>9.236000000000001</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -10287,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>49</v>
       </c>
@@ -10331,7 +10286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>48</v>
       </c>
@@ -10375,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>39</v>
       </c>
@@ -10419,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16">
       <c r="B33">
         <v>113</v>
       </c>
@@ -10439,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9.3520000000000003</v>
+        <v>9.352</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -10463,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>258</v>
       </c>
@@ -10507,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>132</v>
       </c>
@@ -10551,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>58</v>
       </c>
@@ -10595,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>107</v>
       </c>
@@ -10639,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>139</v>
       </c>
@@ -10683,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16">
       <c r="B39">
         <v>114</v>
       </c>
@@ -10727,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:16">
       <c r="B40">
         <v>156</v>
       </c>
@@ -10771,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:16">
       <c r="B41">
         <v>207</v>
       </c>
@@ -10791,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>12.853999999999999</v>
+        <v>12.854</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -10815,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16">
       <c r="B42">
         <v>241</v>
       </c>
@@ -10859,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16">
       <c r="B43">
         <v>232</v>
       </c>
@@ -10879,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>12.936999999999999</v>
+        <v>12.937</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -10903,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16">
       <c r="B44">
         <v>278</v>
       </c>
@@ -10947,7 +10902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16">
       <c r="B45">
         <v>263</v>
       </c>
@@ -10991,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16">
       <c r="B46">
         <v>177</v>
       </c>
@@ -11035,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16">
       <c r="B47">
         <v>159</v>
       </c>
@@ -11079,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16">
       <c r="B48">
         <v>254</v>
       </c>
@@ -11099,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>13.973000000000001</v>
+        <v>13.973</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -11123,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16">
       <c r="B49">
         <v>175</v>
       </c>
@@ -11143,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>12.617000000000001</v>
+        <v>12.617</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -11167,7 +11122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16">
       <c r="B50">
         <v>114</v>
       </c>
@@ -11187,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>13.218999999999999</v>
+        <v>13.219</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -11211,7 +11166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16">
       <c r="B51">
         <v>243</v>
       </c>
@@ -11231,7 +11186,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>12.923999999999999</v>
+        <v>12.924</v>
       </c>
       <c r="I51" t="s">
         <v>17</v>
@@ -11255,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:16">
       <c r="B52">
         <v>181</v>
       </c>
@@ -11299,7 +11254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16">
       <c r="B53">
         <v>300</v>
       </c>
@@ -11343,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16">
       <c r="B54">
         <v>320</v>
       </c>
@@ -11387,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16">
       <c r="B55">
         <v>256</v>
       </c>
@@ -11431,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16">
       <c r="B56">
         <v>221</v>
       </c>
@@ -11475,7 +11430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16">
       <c r="B57">
         <v>199</v>
       </c>
@@ -11495,7 +11450,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>11.239000000000001</v>
+        <v>11.239</v>
       </c>
       <c r="I57" t="s">
         <v>17</v>
@@ -11519,7 +11474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16">
       <c r="B58">
         <v>172</v>
       </c>
@@ -11539,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>12.582000000000001</v>
+        <v>12.582</v>
       </c>
       <c r="I58" t="s">
         <v>17</v>
@@ -11563,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:16">
       <c r="B59">
         <v>237</v>
       </c>
@@ -11592,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="K59">
-        <v>6.7309999999999999</v>
+        <v>6.731</v>
       </c>
       <c r="L59" t="s">
         <v>17</v>
@@ -11610,7 +11565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:16">
       <c r="B60">
         <v>219</v>
       </c>
@@ -11630,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>12.074999999999999</v>
+        <v>12.075</v>
       </c>
       <c r="I60" t="s">
         <v>17</v>
@@ -11639,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6.2450000000000001</v>
+        <v>6.245</v>
       </c>
       <c r="L60" t="s">
         <v>17</v>
@@ -11657,7 +11612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:16">
       <c r="B61">
         <v>270</v>
       </c>
@@ -11677,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>10.026999999999999</v>
+        <v>10.027</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -11686,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="K61">
-        <v>7.9809999999999999</v>
+        <v>7.981</v>
       </c>
       <c r="L61" t="s">
         <v>17</v>
@@ -11704,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:16">
       <c r="B62">
         <v>213</v>
       </c>
@@ -11724,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>10.473000000000001</v>
+        <v>10.473</v>
       </c>
       <c r="I62" t="s">
         <v>17</v>
@@ -11733,7 +11688,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <v>7.3659999999999997</v>
+        <v>7.366</v>
       </c>
       <c r="L62" t="s">
         <v>17</v>
@@ -11751,7 +11706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:16">
       <c r="B63">
         <v>205</v>
       </c>
@@ -11780,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>7.7240000000000002</v>
+        <v>7.724</v>
       </c>
       <c r="L63" t="s">
         <v>17</v>
@@ -11798,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:16">
       <c r="B64">
         <v>213</v>
       </c>
@@ -11827,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>8.1690000000000005</v>
+        <v>8.169</v>
       </c>
       <c r="L64" t="s">
         <v>17</v>
@@ -11845,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16">
       <c r="B65">
         <v>214</v>
       </c>
@@ -11874,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>8.5990000000000002</v>
+        <v>8.599</v>
       </c>
       <c r="L65" t="s">
         <v>17</v>
@@ -11892,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:16">
       <c r="B66">
         <v>317</v>
       </c>
@@ -11921,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <v>8.6229999999999993</v>
+        <v>8.622999999999999</v>
       </c>
       <c r="L66" t="s">
         <v>17</v>
@@ -11939,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16">
       <c r="B67">
         <v>234</v>
       </c>
@@ -11959,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>14.321999999999999</v>
+        <v>14.322</v>
       </c>
       <c r="I67" t="s">
         <v>17</v>
@@ -11968,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="K67">
-        <v>8.6020000000000003</v>
+        <v>8.602</v>
       </c>
       <c r="L67" t="s">
         <v>17</v>
@@ -11986,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:16">
       <c r="B68">
         <v>223</v>
       </c>
@@ -12015,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>8.2629999999999999</v>
+        <v>8.263</v>
       </c>
       <c r="L68" t="s">
         <v>17</v>
@@ -12033,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:16">
       <c r="B69">
         <v>224</v>
       </c>
@@ -12053,7 +12008,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>17.190000000000001</v>
+        <v>17.19</v>
       </c>
       <c r="I69" t="s">
         <v>17</v>
@@ -12062,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>8.8339999999999996</v>
+        <v>8.834</v>
       </c>
       <c r="L69" t="s">
         <v>17</v>
@@ -12080,7 +12035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:16">
       <c r="B70">
         <v>220</v>
       </c>
@@ -12109,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>8.8680000000000003</v>
+        <v>8.868</v>
       </c>
       <c r="L70" t="s">
         <v>17</v>
@@ -12127,9 +12082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:16">
       <c r="B71">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -12156,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>8.5790000000000006</v>
+        <v>8.579000000000001</v>
       </c>
       <c r="L71" t="s">
         <v>17</v>
@@ -12165,7 +12120,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>10.542999999999999</v>
+        <v>10.543</v>
       </c>
       <c r="O71" t="s">
         <v>17</v>
@@ -12174,7 +12129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:16">
       <c r="B72">
         <v>4.72</v>
       </c>
@@ -12212,7 +12167,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>12.114000000000001</v>
+        <v>12.114</v>
       </c>
       <c r="O72" t="s">
         <v>17</v>
@@ -12221,9 +12176,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16">
       <c r="B73">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -12241,7 +12196,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>15.696999999999999</v>
+        <v>15.697</v>
       </c>
       <c r="I73" t="s">
         <v>17</v>
@@ -12268,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:16">
       <c r="B74">
         <v>4.41</v>
       </c>
@@ -12297,7 +12252,7 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>7.9409999999999998</v>
+        <v>7.941</v>
       </c>
       <c r="L74" t="s">
         <v>17</v>
@@ -12306,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>9.4450000000000003</v>
+        <v>9.445</v>
       </c>
       <c r="O74" t="s">
         <v>17</v>
@@ -12315,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16">
       <c r="B75">
         <v>4.68</v>
       </c>
@@ -12335,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>11.755000000000001</v>
+        <v>11.755</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -12344,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>7.5739999999999998</v>
+        <v>7.574</v>
       </c>
       <c r="L75" t="s">
         <v>17</v>
@@ -12353,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <v>7.5090000000000003</v>
+        <v>7.509</v>
       </c>
       <c r="O75" t="s">
         <v>17</v>
@@ -12362,7 +12317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:16">
       <c r="B76">
         <v>4.21</v>
       </c>
@@ -12391,7 +12346,7 @@
         <v>0</v>
       </c>
       <c r="K76">
-        <v>7.6669999999999998</v>
+        <v>7.667</v>
       </c>
       <c r="L76" t="s">
         <v>17</v>
@@ -12400,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <v>9.9939999999999998</v>
+        <v>9.994</v>
       </c>
       <c r="O76" t="s">
         <v>17</v>
@@ -12409,9 +12364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16">
       <c r="B77">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -12429,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>12.063000000000001</v>
+        <v>12.063</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -12438,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="K77">
-        <v>7.9260000000000002</v>
+        <v>7.926</v>
       </c>
       <c r="L77" t="s">
         <v>17</v>
@@ -12447,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <v>9.9420000000000002</v>
+        <v>9.942</v>
       </c>
       <c r="O77" t="s">
         <v>17</v>
@@ -12456,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:16">
       <c r="B78">
         <v>4.45</v>
       </c>
@@ -12503,9 +12458,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:16">
       <c r="B79">
-        <v>4.8600000000000003</v>
+        <v>4.86</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -12532,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="K79">
-        <v>8.1289999999999996</v>
+        <v>8.129</v>
       </c>
       <c r="L79" t="s">
         <v>17</v>
@@ -12541,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>10.595000000000001</v>
+        <v>10.595</v>
       </c>
       <c r="O79" t="s">
         <v>17</v>
@@ -12550,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16">
       <c r="B80">
         <v>4.63</v>
       </c>
@@ -12579,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <v>8.8320000000000007</v>
+        <v>8.832000000000001</v>
       </c>
       <c r="L80" t="s">
         <v>17</v>
@@ -12597,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:16">
       <c r="B81">
         <v>4.92</v>
       </c>
@@ -12617,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>16.530999999999999</v>
+        <v>16.531</v>
       </c>
       <c r="I81" t="s">
         <v>17</v>
@@ -12626,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>9.0850000000000009</v>
+        <v>9.085000000000001</v>
       </c>
       <c r="L81" t="s">
         <v>17</v>
@@ -12644,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:16">
       <c r="B82">
         <v>4.68</v>
       </c>
@@ -12673,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>8.3529999999999998</v>
+        <v>8.353</v>
       </c>
       <c r="L82" t="s">
         <v>17</v>
@@ -12682,7 +12637,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <v>9.7270000000000003</v>
+        <v>9.727</v>
       </c>
       <c r="O82" t="s">
         <v>17</v>
@@ -12691,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:16">
       <c r="B83">
         <v>4.95</v>
       </c>
@@ -12720,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="K83">
-        <v>9.1679999999999993</v>
+        <v>9.167999999999999</v>
       </c>
       <c r="L83" t="s">
         <v>17</v>
@@ -12738,9 +12693,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:16">
       <c r="B84">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
@@ -12758,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>15.042999999999999</v>
+        <v>15.043</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -12767,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="K84">
-        <v>9.1150000000000002</v>
+        <v>9.115</v>
       </c>
       <c r="L84" t="s">
         <v>17</v>
@@ -12776,7 +12731,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>9.3330000000000002</v>
+        <v>9.333</v>
       </c>
       <c r="O84" t="s">
         <v>17</v>
@@ -12785,9 +12740,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16">
       <c r="B85">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -12805,7 +12760,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>16.457000000000001</v>
+        <v>16.457</v>
       </c>
       <c r="I85" t="s">
         <v>17</v>
@@ -12814,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="K85">
-        <v>9.4390000000000001</v>
+        <v>9.439</v>
       </c>
       <c r="L85" t="s">
         <v>17</v>
@@ -12832,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:16">
       <c r="B86">
         <v>4.5</v>
       </c>
@@ -12852,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>15.391999999999999</v>
+        <v>15.392</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -12870,7 +12825,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <v>8.1690000000000005</v>
+        <v>8.169</v>
       </c>
       <c r="O86" t="s">
         <v>17</v>
@@ -12879,9 +12834,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:16">
       <c r="B87">
-        <v>4.9800000000000004</v>
+        <v>4.98</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -12908,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="K87">
-        <v>9.0690000000000008</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="L87" t="s">
         <v>17</v>
@@ -12917,7 +12872,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <v>11.433999999999999</v>
+        <v>11.434</v>
       </c>
       <c r="O87" t="s">
         <v>17</v>
@@ -12926,9 +12881,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:16">
       <c r="B88">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -12946,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>14.481999999999999</v>
+        <v>14.482</v>
       </c>
       <c r="I88" t="s">
         <v>17</v>
@@ -12964,7 +12919,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>7.7590000000000003</v>
+        <v>7.759</v>
       </c>
       <c r="O88" t="s">
         <v>17</v>
@@ -12973,9 +12928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:16">
       <c r="B89">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
@@ -13011,7 +12966,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <v>10.507999999999999</v>
+        <v>10.508</v>
       </c>
       <c r="O89" t="s">
         <v>17</v>
@@ -13020,7 +12975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:16">
       <c r="B90">
         <v>4.54</v>
       </c>
@@ -13040,7 +12995,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>14.651999999999999</v>
+        <v>14.652</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -13058,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <v>11.239000000000001</v>
+        <v>11.239</v>
       </c>
       <c r="O90" t="s">
         <v>17</v>
@@ -13067,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:16">
       <c r="B91">
         <v>4.47</v>
       </c>
@@ -13096,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>10.907999999999999</v>
+        <v>10.908</v>
       </c>
       <c r="L91" t="s">
         <v>17</v>
@@ -13114,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:16">
       <c r="B92">
         <v>4.46</v>
       </c>
@@ -13134,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>19.013000000000002</v>
+        <v>19.013</v>
       </c>
       <c r="I92" t="s">
         <v>17</v>
@@ -13161,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:16">
       <c r="B93">
         <v>4.37</v>
       </c>
@@ -13199,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <v>9.8559999999999999</v>
+        <v>9.856</v>
       </c>
       <c r="O93" t="s">
         <v>17</v>
@@ -13208,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:16">
       <c r="B94">
         <v>4.62</v>
       </c>
@@ -13228,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>16.614999999999998</v>
+        <v>16.615</v>
       </c>
       <c r="I94" t="s">
         <v>17</v>
@@ -13246,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <v>13.018000000000001</v>
+        <v>13.018</v>
       </c>
       <c r="O94" t="s">
         <v>17</v>
@@ -13255,7 +13210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:16">
       <c r="B95">
         <v>4.68</v>
       </c>
@@ -13275,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>14.848000000000001</v>
+        <v>14.848</v>
       </c>
       <c r="I95" t="s">
         <v>17</v>
@@ -13293,7 +13248,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <v>7.5949999999999998</v>
+        <v>7.595</v>
       </c>
       <c r="O95" t="s">
         <v>17</v>
@@ -13302,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:16">
       <c r="B96">
         <v>4.59</v>
       </c>
@@ -13331,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="K96">
-        <v>8.8330000000000002</v>
+        <v>8.833</v>
       </c>
       <c r="L96" t="s">
         <v>17</v>
@@ -13340,7 +13295,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <v>9.8559999999999999</v>
+        <v>9.856</v>
       </c>
       <c r="O96" t="s">
         <v>17</v>
@@ -13349,7 +13304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:16">
       <c r="B97">
         <v>5.12</v>
       </c>
@@ -13378,7 +13333,7 @@
         <v>0</v>
       </c>
       <c r="K97">
-        <v>8.8390000000000004</v>
+        <v>8.839</v>
       </c>
       <c r="L97" t="s">
         <v>17</v>
@@ -13387,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <v>4.0430000000000001</v>
+        <v>4.043</v>
       </c>
       <c r="O97" t="s">
         <v>17</v>
@@ -13396,7 +13351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:16">
       <c r="B98">
         <v>4.76</v>
       </c>
@@ -13416,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>12.473000000000001</v>
+        <v>12.473</v>
       </c>
       <c r="I98" t="s">
         <v>17</v>
@@ -13425,7 +13380,7 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>8.9770000000000003</v>
+        <v>8.977</v>
       </c>
       <c r="L98" t="s">
         <v>17</v>
@@ -13434,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>9.3729999999999993</v>
+        <v>9.372999999999999</v>
       </c>
       <c r="O98" t="s">
         <v>17</v>
@@ -13443,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:16">
       <c r="B99">
         <v>4.26</v>
       </c>
@@ -13454,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -13472,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>8.8650000000000002</v>
+        <v>8.865</v>
       </c>
       <c r="L99" t="s">
         <v>17</v>
@@ -13481,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <v>5.7210000000000001</v>
+        <v>5.721</v>
       </c>
       <c r="O99" t="s">
         <v>17</v>
@@ -13490,9 +13445,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:16">
       <c r="B100">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C100" t="s">
         <v>17</v>
@@ -13519,7 +13474,7 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <v>8.7129999999999992</v>
+        <v>8.712999999999999</v>
       </c>
       <c r="L100" t="s">
         <v>17</v>
@@ -13528,7 +13483,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <v>4.6749999999999998</v>
+        <v>4.675</v>
       </c>
       <c r="O100" t="s">
         <v>17</v>
@@ -13537,9 +13492,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:16">
       <c r="B101">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
@@ -13557,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>12.723000000000001</v>
+        <v>12.723</v>
       </c>
       <c r="I101" t="s">
         <v>17</v>
@@ -13566,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>8.9589999999999996</v>
+        <v>8.959</v>
       </c>
       <c r="L101" t="s">
         <v>17</v>
@@ -13575,7 +13530,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <v>3.5710000000000002</v>
+        <v>3.571</v>
       </c>
       <c r="O101" t="s">
         <v>17</v>
@@ -13584,7 +13539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:16">
       <c r="B102">
         <v>341</v>
       </c>
@@ -13604,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>11.707000000000001</v>
+        <v>11.707</v>
       </c>
       <c r="I102" t="s">
         <v>17</v>
@@ -13613,7 +13568,7 @@
         <v>0</v>
       </c>
       <c r="K102">
-        <v>8.4390000000000001</v>
+        <v>8.439</v>
       </c>
       <c r="L102" t="s">
         <v>17</v>
@@ -13622,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <v>6.2210000000000001</v>
+        <v>6.221</v>
       </c>
       <c r="O102" t="s">
         <v>17</v>
@@ -13631,7 +13586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:16">
       <c r="B103">
         <v>254</v>
       </c>
@@ -13678,7 +13633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:16">
       <c r="B104">
         <v>285</v>
       </c>
@@ -13707,7 +13662,7 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>9.0530000000000008</v>
+        <v>9.053000000000001</v>
       </c>
       <c r="L104" t="s">
         <v>17</v>
@@ -13725,7 +13680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:16">
       <c r="B105">
         <v>187</v>
       </c>
@@ -13754,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="K105">
-        <v>8.9239999999999995</v>
+        <v>8.923999999999999</v>
       </c>
       <c r="L105" t="s">
         <v>17</v>
@@ -13763,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <v>7.7009999999999996</v>
+        <v>7.701</v>
       </c>
       <c r="O105" t="s">
         <v>17</v>
@@ -13772,7 +13727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:16">
       <c r="B106">
         <v>344</v>
       </c>
@@ -13792,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>10.515000000000001</v>
+        <v>10.515</v>
       </c>
       <c r="I106" t="s">
         <v>17</v>
@@ -13819,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:16">
       <c r="B107">
         <v>4.95</v>
       </c>
@@ -13839,7 +13794,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>13.372999999999999</v>
+        <v>13.373</v>
       </c>
       <c r="I107" t="s">
         <v>17</v>
@@ -13848,7 +13803,7 @@
         <v>0</v>
       </c>
       <c r="K107">
-        <v>8.1590000000000007</v>
+        <v>8.159000000000001</v>
       </c>
       <c r="L107" t="s">
         <v>17</v>
@@ -13857,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <v>6.4080000000000004</v>
+        <v>6.408</v>
       </c>
       <c r="O107" t="s">
         <v>17</v>
@@ -13866,9 +13821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:16">
       <c r="B108">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
@@ -13895,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>9.2200000000000006</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="L108" t="s">
         <v>17</v>
@@ -13913,7 +13868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:16">
       <c r="B109">
         <v>4.87</v>
       </c>
@@ -13933,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>10.414999999999999</v>
+        <v>10.415</v>
       </c>
       <c r="I109" t="s">
         <v>17</v>
@@ -13942,7 +13897,7 @@
         <v>0</v>
       </c>
       <c r="K109">
-        <v>9.4369999999999994</v>
+        <v>9.436999999999999</v>
       </c>
       <c r="L109" t="s">
         <v>17</v>
@@ -13960,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:16">
       <c r="B110">
         <v>4.71</v>
       </c>
@@ -13980,7 +13935,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>10.489000000000001</v>
+        <v>10.489</v>
       </c>
       <c r="I110" t="s">
         <v>17</v>
@@ -13989,7 +13944,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>9.7970000000000006</v>
+        <v>9.797000000000001</v>
       </c>
       <c r="L110" t="s">
         <v>17</v>
@@ -13998,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <v>9.0120000000000005</v>
+        <v>9.012</v>
       </c>
       <c r="O110" t="s">
         <v>17</v>
@@ -14007,9 +13962,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:16">
       <c r="B111">
-        <v>4.9400000000000004</v>
+        <v>4.94</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -14027,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>10.125999999999999</v>
+        <v>10.126</v>
       </c>
       <c r="I111" t="s">
         <v>17</v>
@@ -14036,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>9.2970000000000006</v>
+        <v>9.297000000000001</v>
       </c>
       <c r="L111" t="s">
         <v>17</v>
@@ -14054,9 +14009,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:16">
       <c r="B112">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="C112" t="s">
         <v>17</v>
@@ -14065,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>9.0399999999999991</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
@@ -14074,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>12.513999999999999</v>
+        <v>12.514</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -14083,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="K112">
-        <v>9.4629999999999992</v>
+        <v>9.462999999999999</v>
       </c>
       <c r="L112" t="s">
         <v>17</v>
@@ -14101,9 +14056,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:16">
       <c r="B113">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C113" t="s">
         <v>17</v>
@@ -14121,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>12.451000000000001</v>
+        <v>12.451</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -14130,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="K113">
-        <v>7.9020000000000001</v>
+        <v>7.902</v>
       </c>
       <c r="L113" t="s">
         <v>17</v>
@@ -14139,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <v>9.9139999999999997</v>
+        <v>9.914</v>
       </c>
       <c r="O113" t="s">
         <v>17</v>
@@ -14148,7 +14103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:16">
       <c r="B114">
         <v>4.38</v>
       </c>
@@ -14168,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>12.521000000000001</v>
+        <v>12.521</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -14177,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>8.6530000000000005</v>
+        <v>8.653</v>
       </c>
       <c r="L114" t="s">
         <v>17</v>
@@ -14186,7 +14141,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <v>11.170999999999999</v>
+        <v>11.171</v>
       </c>
       <c r="O114" t="s">
         <v>17</v>
@@ -14195,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:16">
       <c r="B115">
         <v>4.13</v>
       </c>
@@ -14224,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="K115">
-        <v>8.6750000000000007</v>
+        <v>8.675000000000001</v>
       </c>
       <c r="L115" t="s">
         <v>17</v>
@@ -14233,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <v>10.473000000000001</v>
+        <v>10.473</v>
       </c>
       <c r="O115" t="s">
         <v>17</v>
@@ -14242,9 +14197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:16">
       <c r="B116">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
@@ -14271,7 +14226,7 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>9.0079999999999991</v>
+        <v>9.007999999999999</v>
       </c>
       <c r="L116" t="s">
         <v>17</v>
@@ -14289,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:16">
       <c r="B117">
         <v>4.55</v>
       </c>
@@ -14318,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="K117">
-        <v>8.1430000000000007</v>
+        <v>8.143000000000001</v>
       </c>
       <c r="L117" t="s">
         <v>17</v>
@@ -14336,7 +14291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:16">
       <c r="B118">
         <v>4.93</v>
       </c>
@@ -14374,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>11.042999999999999</v>
+        <v>11.043</v>
       </c>
       <c r="O118" t="s">
         <v>17</v>
@@ -14383,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:16">
       <c r="B119">
         <v>4.3</v>
       </c>
@@ -14403,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>10.792999999999999</v>
+        <v>10.793</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -14412,7 +14367,7 @@
         <v>0</v>
       </c>
       <c r="K119">
-        <v>8.2439999999999998</v>
+        <v>8.244</v>
       </c>
       <c r="L119" t="s">
         <v>17</v>
@@ -14430,9 +14385,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:16">
       <c r="B120">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -14459,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="K120">
-        <v>8.7189999999999994</v>
+        <v>8.718999999999999</v>
       </c>
       <c r="L120" t="s">
         <v>17</v>
@@ -14477,9 +14432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:16">
       <c r="B121">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -14488,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>8.0299999999999994</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -14506,7 +14461,7 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>7.8719999999999999</v>
+        <v>7.872</v>
       </c>
       <c r="L121" t="s">
         <v>17</v>
@@ -14515,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>8.4890000000000008</v>
+        <v>8.489000000000001</v>
       </c>
       <c r="O121" t="s">
         <v>17</v>
@@ -14524,9 +14479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:16">
       <c r="B122">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -14535,7 +14490,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>9.2899999999999991</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -14553,7 +14508,7 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>8.2349999999999994</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="L122" t="s">
         <v>17</v>
@@ -14571,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:16">
       <c r="B123">
         <v>5.14</v>
       </c>
@@ -14600,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>7.4290000000000003</v>
+        <v>7.429</v>
       </c>
       <c r="L123" t="s">
         <v>17</v>
@@ -14618,9 +14573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:16">
       <c r="B124">
-        <v>4.6500000000000004</v>
+        <v>4.65</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -14638,7 +14593,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>13.842000000000001</v>
+        <v>13.842</v>
       </c>
       <c r="I124" t="s">
         <v>17</v>
@@ -14647,7 +14602,7 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>7.3659999999999997</v>
+        <v>7.366</v>
       </c>
       <c r="L124" t="s">
         <v>17</v>
@@ -14665,7 +14620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:16">
       <c r="B125">
         <v>4.46</v>
       </c>
@@ -14694,7 +14649,7 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>7.4969999999999999</v>
+        <v>7.497</v>
       </c>
       <c r="L125" t="s">
         <v>17</v>
@@ -14703,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>11.324999999999999</v>
+        <v>11.325</v>
       </c>
       <c r="O125" t="s">
         <v>17</v>
@@ -14712,7 +14667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:16">
       <c r="B126">
         <v>4.8</v>
       </c>
@@ -14741,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="K126">
-        <v>7.1040000000000001</v>
+        <v>7.104</v>
       </c>
       <c r="L126" t="s">
         <v>17</v>
@@ -14750,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>9.2319999999999993</v>
+        <v>9.231999999999999</v>
       </c>
       <c r="O126" t="s">
         <v>17</v>
@@ -14759,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:16">
       <c r="B127">
         <v>4.96</v>
       </c>
@@ -14779,7 +14734,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>14.478999999999999</v>
+        <v>14.479</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -14788,7 +14743,7 @@
         <v>0</v>
       </c>
       <c r="K127">
-        <v>7.0380000000000003</v>
+        <v>7.038</v>
       </c>
       <c r="L127" t="s">
         <v>17</v>
@@ -14797,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>9.1359999999999992</v>
+        <v>9.135999999999999</v>
       </c>
       <c r="O127" t="s">
         <v>17</v>
@@ -14806,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:16">
       <c r="B128">
         <v>4.84</v>
       </c>
@@ -14835,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="K128">
-        <v>7.3319999999999999</v>
+        <v>7.332</v>
       </c>
       <c r="L128" t="s">
         <v>17</v>
@@ -14853,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:16">
       <c r="B129">
         <v>5.16</v>
       </c>
@@ -14882,7 +14837,7 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>7.6980000000000004</v>
+        <v>7.698</v>
       </c>
       <c r="L129" t="s">
         <v>17</v>
@@ -14900,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:16">
       <c r="B130">
         <v>4.25</v>
       </c>
@@ -14929,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="K130">
-        <v>7.5380000000000003</v>
+        <v>7.538</v>
       </c>
       <c r="L130" t="s">
         <v>17</v>
@@ -14938,7 +14893,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>7.7729999999999997</v>
+        <v>7.773</v>
       </c>
       <c r="O130" t="s">
         <v>17</v>
@@ -14947,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:16">
       <c r="B131">
         <v>5</v>
       </c>
@@ -14958,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>8.2799999999999994</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
@@ -14967,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>11.670999999999999</v>
+        <v>11.671</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -14976,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="K131">
-        <v>7.1470000000000002</v>
+        <v>7.147</v>
       </c>
       <c r="L131" t="s">
         <v>17</v>
@@ -14985,7 +14940,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <v>10.063000000000001</v>
+        <v>10.063</v>
       </c>
       <c r="O131" t="s">
         <v>17</v>
@@ -14994,9 +14949,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:16">
       <c r="B132">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="C132" t="s">
         <v>17</v>
@@ -15023,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="K132">
-        <v>6.0979999999999999</v>
+        <v>6.098</v>
       </c>
       <c r="L132" t="s">
         <v>17</v>
@@ -15041,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:16">
       <c r="B133">
         <v>4.66</v>
       </c>
@@ -15061,7 +15016,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>9.4529999999999994</v>
+        <v>9.452999999999999</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -15070,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>6.7610000000000001</v>
+        <v>6.761</v>
       </c>
       <c r="L133" t="s">
         <v>17</v>
@@ -15079,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>10.593999999999999</v>
+        <v>10.594</v>
       </c>
       <c r="O133" t="s">
         <v>17</v>
@@ -15088,9 +15043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:16">
       <c r="B134">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
@@ -15108,7 +15063,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>8.4410000000000007</v>
+        <v>8.441000000000001</v>
       </c>
       <c r="I134" t="s">
         <v>17</v>
@@ -15117,7 +15072,7 @@
         <v>0</v>
       </c>
       <c r="K134">
-        <v>6.0270000000000001</v>
+        <v>6.027</v>
       </c>
       <c r="L134" t="s">
         <v>17</v>
@@ -15135,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:16">
       <c r="B135">
         <v>4.3</v>
       </c>
@@ -15155,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>9.7420000000000009</v>
+        <v>9.742000000000001</v>
       </c>
       <c r="I135" t="s">
         <v>17</v>
@@ -15164,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>6.7590000000000003</v>
+        <v>6.759</v>
       </c>
       <c r="L135" t="s">
         <v>17</v>
@@ -15173,7 +15128,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>12.292999999999999</v>
+        <v>12.293</v>
       </c>
       <c r="O135" t="s">
         <v>17</v>
@@ -15182,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:16">
       <c r="B136">
         <v>4.32</v>
       </c>
@@ -15202,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>10.797000000000001</v>
+        <v>10.797</v>
       </c>
       <c r="I136" t="s">
         <v>17</v>
@@ -15211,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="K136">
-        <v>6.9169999999999998</v>
+        <v>6.917</v>
       </c>
       <c r="L136" t="s">
         <v>17</v>
@@ -15220,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>10.156000000000001</v>
+        <v>10.156</v>
       </c>
       <c r="O136" t="s">
         <v>17</v>
@@ -15229,9 +15184,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:16">
       <c r="B137">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
@@ -15258,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>6.0449999999999999</v>
+        <v>6.045</v>
       </c>
       <c r="L137" t="s">
         <v>17</v>
@@ -15276,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:16">
       <c r="B138">
         <v>4.55</v>
       </c>
@@ -15287,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>9.0500000000000007</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -15305,7 +15260,7 @@
         <v>0</v>
       </c>
       <c r="K138">
-        <v>7.1230000000000002</v>
+        <v>7.123</v>
       </c>
       <c r="L138" t="s">
         <v>17</v>
@@ -15323,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:16">
       <c r="B139">
         <v>4.47</v>
       </c>
@@ -15343,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>11.385999999999999</v>
+        <v>11.386</v>
       </c>
       <c r="I139" t="s">
         <v>17</v>
@@ -15352,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="K139">
-        <v>7.1070000000000002</v>
+        <v>7.107</v>
       </c>
       <c r="L139" t="s">
         <v>17</v>
@@ -15361,7 +15316,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>7.3140000000000001</v>
+        <v>7.314</v>
       </c>
       <c r="O139" t="s">
         <v>17</v>
@@ -15370,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:16">
       <c r="B140">
         <v>4.32</v>
       </c>
@@ -15381,7 +15336,7 @@
         <v>0</v>
       </c>
       <c r="E140">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -15390,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>12.923999999999999</v>
+        <v>12.924</v>
       </c>
       <c r="I140" t="s">
         <v>17</v>
@@ -15399,7 +15354,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>6.8179999999999996</v>
+        <v>6.818</v>
       </c>
       <c r="L140" t="s">
         <v>17</v>
@@ -15408,7 +15363,7 @@
         <v>0</v>
       </c>
       <c r="N140">
-        <v>9.4440000000000008</v>
+        <v>9.444000000000001</v>
       </c>
       <c r="O140" t="s">
         <v>17</v>
@@ -15417,9 +15372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:16">
       <c r="B141">
-        <v>4.6399999999999997</v>
+        <v>4.64</v>
       </c>
       <c r="C141" t="s">
         <v>17</v>
@@ -15437,7 +15392,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>13.603999999999999</v>
+        <v>13.604</v>
       </c>
       <c r="I141" t="s">
         <v>17</v>
@@ -15446,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="K141">
-        <v>7.0359999999999996</v>
+        <v>7.036</v>
       </c>
       <c r="L141" t="s">
         <v>17</v>
@@ -15464,7 +15419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:16">
       <c r="B142">
         <v>4.54</v>
       </c>
@@ -15484,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>9.2460000000000004</v>
+        <v>9.246</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -15502,7 +15457,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>9.8889999999999993</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="O142" t="s">
         <v>17</v>
@@ -15511,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:16">
       <c r="B143">
         <v>4.26</v>
       </c>
@@ -15522,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>8.4700000000000006</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -15531,7 +15486,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>9.0329999999999995</v>
+        <v>9.032999999999999</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -15540,7 +15495,7 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>6.2069999999999999</v>
+        <v>6.207</v>
       </c>
       <c r="L143" t="s">
         <v>17</v>
@@ -15549,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>4.2439999999999998</v>
+        <v>4.244</v>
       </c>
       <c r="O143" t="s">
         <v>17</v>
@@ -15558,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:16">
       <c r="B144">
         <v>4.68</v>
       </c>
@@ -15578,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>9.3109999999999999</v>
+        <v>9.311</v>
       </c>
       <c r="I144" t="s">
         <v>17</v>
@@ -15587,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="K144">
-        <v>7.2130000000000001</v>
+        <v>7.213</v>
       </c>
       <c r="L144" t="s">
         <v>17</v>
@@ -15596,7 +15551,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>11.702999999999999</v>
+        <v>11.703</v>
       </c>
       <c r="O144" t="s">
         <v>17</v>
@@ -15605,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:16">
       <c r="B145">
         <v>4.12</v>
       </c>
@@ -15625,7 +15580,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>11.992000000000001</v>
+        <v>11.992</v>
       </c>
       <c r="I145" t="s">
         <v>17</v>
@@ -15634,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="K145">
-        <v>7.0629999999999997</v>
+        <v>7.063</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -15643,7 +15598,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>10.973000000000001</v>
+        <v>10.973</v>
       </c>
       <c r="O145" t="s">
         <v>17</v>
@@ -15652,7 +15607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:16">
       <c r="B146">
         <v>4.16</v>
       </c>
@@ -15681,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>8.0570000000000004</v>
+        <v>8.057</v>
       </c>
       <c r="L146" t="s">
         <v>17</v>
@@ -15690,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>10.287000000000001</v>
+        <v>10.287</v>
       </c>
       <c r="O146" t="s">
         <v>17</v>
@@ -15699,9 +15654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:16">
       <c r="B147">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
@@ -15710,7 +15665,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>8.8800000000000008</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="F147" t="s">
         <v>17</v>
@@ -15728,7 +15683,7 @@
         <v>0</v>
       </c>
       <c r="K147">
-        <v>6.9130000000000003</v>
+        <v>6.913</v>
       </c>
       <c r="L147" t="s">
         <v>17</v>
@@ -15746,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:16">
       <c r="B148">
         <v>4.04</v>
       </c>
@@ -15757,7 +15712,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>9.64</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F148" t="s">
         <v>17</v>
@@ -15775,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>7.4210000000000003</v>
+        <v>7.421</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -15784,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>11.151999999999999</v>
+        <v>11.152</v>
       </c>
       <c r="O148" t="s">
         <v>17</v>
@@ -15793,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:16">
       <c r="B149">
         <v>4.09</v>
       </c>
@@ -15822,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="K149">
-        <v>7.3609999999999998</v>
+        <v>7.361</v>
       </c>
       <c r="L149" t="s">
         <v>17</v>
@@ -15831,7 +15786,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>9.6859999999999999</v>
+        <v>9.686</v>
       </c>
       <c r="O149" t="s">
         <v>17</v>
@@ -15840,7 +15795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:16">
       <c r="B150">
         <v>4.24</v>
       </c>
@@ -15860,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>21.050999999999998</v>
+        <v>21.051</v>
       </c>
       <c r="I150" t="s">
         <v>17</v>
@@ -15869,7 +15824,7 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>7.3440000000000003</v>
+        <v>7.344</v>
       </c>
       <c r="L150" t="s">
         <v>17</v>
@@ -15878,7 +15833,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>9.6509999999999998</v>
+        <v>9.651</v>
       </c>
       <c r="O150" t="s">
         <v>17</v>
@@ -15887,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:16">
       <c r="B151">
         <v>4.13</v>
       </c>
@@ -15916,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="K151">
-        <v>7.6689999999999996</v>
+        <v>7.669</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -15934,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:16">
       <c r="B152">
         <v>4.17</v>
       </c>
@@ -15945,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>9.2100000000000009</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -15963,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>7.5810000000000004</v>
+        <v>7.581</v>
       </c>
       <c r="L152" t="s">
         <v>17</v>
@@ -15972,7 +15927,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <v>7.1870000000000003</v>
+        <v>7.187</v>
       </c>
       <c r="O152" t="s">
         <v>17</v>
@@ -15981,9 +15936,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:16">
       <c r="B153">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
@@ -16010,7 +15965,7 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>8.5790000000000006</v>
+        <v>8.579000000000001</v>
       </c>
       <c r="L153" t="s">
         <v>17</v>
@@ -16019,7 +15974,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>5.6180000000000003</v>
+        <v>5.618</v>
       </c>
       <c r="O153" t="s">
         <v>17</v>
@@ -16028,7 +15983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:16">
       <c r="B154">
         <v>3.94</v>
       </c>
@@ -16048,7 +16003,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>8.1189999999999998</v>
+        <v>8.119</v>
       </c>
       <c r="I154" t="s">
         <v>17</v>
@@ -16057,7 +16012,7 @@
         <v>0</v>
       </c>
       <c r="K154">
-        <v>9.4550000000000001</v>
+        <v>9.455</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -16066,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <v>8.3849999999999998</v>
+        <v>8.385</v>
       </c>
       <c r="O154" t="s">
         <v>17</v>
@@ -16075,7 +16030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:16">
       <c r="B155">
         <v>4.04</v>
       </c>
@@ -16104,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="K155">
-        <v>7.8550000000000004</v>
+        <v>7.855</v>
       </c>
       <c r="L155" t="s">
         <v>17</v>
@@ -16122,7 +16077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:16">
       <c r="B156">
         <v>3.9</v>
       </c>
@@ -16169,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:16">
       <c r="B157">
         <v>3.86</v>
       </c>
@@ -16198,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="K157">
-        <v>9.4060000000000006</v>
+        <v>9.406000000000001</v>
       </c>
       <c r="L157" t="s">
         <v>17</v>
@@ -16216,9 +16171,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:16">
       <c r="B158">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="C158" t="s">
         <v>17</v>
@@ -16263,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:16">
       <c r="B159">
         <v>4.08</v>
       </c>
@@ -16283,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>13.048999999999999</v>
+        <v>13.049</v>
       </c>
       <c r="I159" t="s">
         <v>17</v>
@@ -16292,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="K159">
-        <v>9.9649999999999999</v>
+        <v>9.965</v>
       </c>
       <c r="L159" t="s">
         <v>17</v>
@@ -16301,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>10.236000000000001</v>
+        <v>10.236</v>
       </c>
       <c r="O159" t="s">
         <v>17</v>
@@ -16310,9 +16265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:16">
       <c r="B160">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="C160" t="s">
         <v>17</v>
@@ -16339,7 +16294,7 @@
         <v>0</v>
       </c>
       <c r="K160">
-        <v>12.265000000000001</v>
+        <v>12.265</v>
       </c>
       <c r="L160" t="s">
         <v>17</v>
@@ -16348,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <v>7.7770000000000001</v>
+        <v>7.777</v>
       </c>
       <c r="O160" t="s">
         <v>17</v>
@@ -16357,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:16">
       <c r="B161">
         <v>4.04</v>
       </c>
@@ -16395,7 +16350,7 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O161" t="s">
         <v>17</v>
@@ -16404,7 +16359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:16">
       <c r="B162">
         <v>4.07</v>
       </c>
@@ -16415,7 +16370,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>9.2200000000000006</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F162" t="s">
         <v>17</v>
@@ -16451,7 +16406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:16">
       <c r="B163">
         <v>4.28</v>
       </c>
@@ -16462,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
@@ -16489,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>9.0359999999999996</v>
+        <v>9.036</v>
       </c>
       <c r="O163" t="s">
         <v>17</v>
@@ -16498,7 +16453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:16">
       <c r="B164">
         <v>4.13</v>
       </c>
@@ -16518,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>14.515000000000001</v>
+        <v>14.515</v>
       </c>
       <c r="I164" t="s">
         <v>17</v>
@@ -16545,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:16">
       <c r="B165">
         <v>4.57</v>
       </c>
@@ -16574,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="K165">
-        <v>10.388999999999999</v>
+        <v>10.389</v>
       </c>
       <c r="L165" t="s">
         <v>17</v>
@@ -16583,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>9.7479999999999993</v>
+        <v>9.747999999999999</v>
       </c>
       <c r="O165" t="s">
         <v>17</v>
@@ -16592,9 +16547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:16">
       <c r="B166">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
@@ -16612,7 +16567,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>11.159000000000001</v>
+        <v>11.159</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -16630,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <v>6.6740000000000004</v>
+        <v>6.674</v>
       </c>
       <c r="O166" t="s">
         <v>17</v>
@@ -16639,7 +16594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:16">
       <c r="B167">
         <v>4.09</v>
       </c>
@@ -16686,9 +16641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:16">
       <c r="B168">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="C168" t="s">
         <v>17</v>
@@ -16733,7 +16688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:16">
       <c r="B169">
         <v>4.18</v>
       </c>
@@ -16780,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:16">
       <c r="C170">
         <v>0</v>
       </c>
@@ -16824,7 +16779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:16">
       <c r="C171">
         <v>0</v>
       </c>
@@ -16868,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:16">
       <c r="C172">
         <v>0</v>
       </c>
@@ -16903,7 +16858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:16">
       <c r="C173">
         <v>0</v>
       </c>
